--- a/data1.xlsx
+++ b/data1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\web developer\Gestion des attestations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5364106-5601-498C-B0DF-E16B15B019B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3686DCE-0F13-4180-8F88-7F80343BA025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{A47D9093-2BAE-43E3-83DE-8113FA28A671}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A47D9093-2BAE-43E3-83DE-8113FA28A671}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -86,9 +86,6 @@
     <t>développement logiciels</t>
   </si>
   <si>
-    <t>déeloppement mobile</t>
-  </si>
-  <si>
     <t>2023/22/12</t>
   </si>
   <si>
@@ -96,6 +93,9 @@
   </si>
   <si>
     <t>embarqué</t>
+  </si>
+  <si>
+    <t>développement mobile</t>
   </si>
 </sst>
 </file>
@@ -477,17 +477,17 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" customWidth="1"/>
+    <col min="2" max="2" width="23.5546875" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -501,7 +501,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -515,7 +515,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -529,7 +529,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -540,7 +540,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -554,34 +554,34 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C15" s="1"/>
     </row>
   </sheetData>
@@ -595,18 +595,18 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -620,21 +620,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -645,10 +645,10 @@
         <v>45658</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" s="7">
         <v>45366</v>
       </c>
@@ -656,78 +656,78 @@
         <v>45782</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="6"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="6"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="6"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="6"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" s="4"/>
       <c r="C17" s="6"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" s="4"/>
       <c r="C18" s="6"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
     </row>
@@ -744,7 +744,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
